--- a/inst/testdata/latlon/testpoints_PR_GU_AS_VI_MP.xlsx
+++ b/inst/testdata/latlon/testpoints_PR_GU_AS_VI_MP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorrale\R\mysource\EJAM\inst\testdata\latlon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF99EB5-7521-4A27-B358-E2A231E34BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F0CB9-8E30-4C52-8BE5-05F5540111AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3030" windowWidth="14470" windowHeight="15410" xr2:uid="{629CD560-FB62-4149-931E-4385C0BB613D}"/>
+    <workbookView xWindow="1950" yWindow="10620" windowWidth="12150" windowHeight="8770" xr2:uid="{629CD560-FB62-4149-931E-4385C0BB613D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>lat</t>
   </si>
@@ -117,6 +117,48 @@
   </si>
   <si>
     <t>145.720549, 15.211276</t>
+  </si>
+  <si>
+    <t>Mt. Everest</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>86.9251253036977,27.9889159667541</t>
+  </si>
+  <si>
+    <t>Invalid location for tool</t>
+  </si>
+  <si>
+    <t>Invalid lat,lon - not on earth</t>
+  </si>
+  <si>
+    <t>This is a real location but outside scope of tool</t>
+  </si>
+  <si>
+    <t>This is not a real location</t>
+  </si>
+  <si>
+    <t>not an actual location</t>
+  </si>
+  <si>
+    <t>NA VALUES</t>
+  </si>
+  <si>
+    <t>ZQ</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>190,-190</t>
+  </si>
+  <si>
+    <t>27.9889159667541,86.9251253036977</t>
+  </si>
+  <si>
+    <t>latlon_canpastegooglemaps</t>
   </si>
 </sst>
 </file>
@@ -128,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +192,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,12 +216,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -504,26 +538,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC9B0F3-4641-47F4-B7CE-EEB966015E26}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.08984375" customWidth="1"/>
     <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.90625" customWidth="1"/>
+    <col min="8" max="8" width="40.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -546,13 +580,16 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>-66.136797000000001</v>
       </c>
@@ -571,17 +608,18 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>-170.72038499999999</v>
       </c>
@@ -603,14 +641,14 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>144.78178</v>
       </c>
@@ -632,14 +670,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>145.72054900000001</v>
       </c>
@@ -661,14 +700,15 @@
       <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>-64.786197263046702</v>
       </c>
@@ -690,15 +730,104 @@
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G8" s="4"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>86.925125303697698</v>
+      </c>
+      <c r="B7">
+        <v>27.988915966754099</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>190</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-190</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
